--- a/question data.xlsx
+++ b/question data.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\SNU AI\기초 프로그래밍\project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2726852-EAE8-4975-9137-28B47DA581BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C53B9C3-17D3-4FA4-AD8E-F1475DE7CF58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{56321EC3-2681-47BD-B0F6-B24D6188E6BB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{56321EC3-2681-47BD-B0F6-B24D6188E6BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -735,17 +725,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514AB6CF-9353-4DF2-828B-7B5B007D613F}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.796875" customWidth="1"/>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>82</v>
       </c>
@@ -780,7 +770,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -800,7 +790,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -820,7 +810,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -840,7 +830,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -860,7 +850,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -880,7 +870,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -900,7 +890,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -920,7 +910,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -940,7 +930,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -960,7 +950,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -980,7 +970,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1000,7 +990,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1020,7 +1010,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1040,7 +1030,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1060,7 +1050,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1080,7 +1070,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1100,7 +1090,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1120,7 +1110,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1140,7 +1130,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1160,7 +1150,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1174,7 +1164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1188,7 +1178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1202,7 +1192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1216,7 +1206,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1230,7 +1220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1244,7 +1234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1258,7 +1248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1272,7 +1262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1286,7 +1276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1300,7 +1290,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1314,7 +1304,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1328,7 +1318,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1342,7 +1332,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1356,7 +1346,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -1370,7 +1360,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -1384,7 +1374,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -1398,7 +1388,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
@@ -1412,7 +1402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -1426,7 +1416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -1440,7 +1430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -1454,7 +1444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -1468,7 +1458,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -1482,7 +1472,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
@@ -1490,13 +1480,13 @@
         <v>64</v>
       </c>
       <c r="C44">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="D44">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
@@ -1510,7 +1500,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -1524,7 +1514,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
@@ -1538,7 +1528,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
@@ -1552,7 +1542,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -1566,7 +1556,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
@@ -1595,7 +1585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
@@ -1624,7 +1614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -1653,7 +1643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
@@ -1682,7 +1672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
@@ -1717,7 +1707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
@@ -1752,7 +1742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
@@ -1787,7 +1777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
@@ -1822,7 +1812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
@@ -1842,7 +1832,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
@@ -1862,7 +1852,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
@@ -1882,7 +1872,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
@@ -1902,7 +1892,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>75</v>
       </c>
@@ -1922,7 +1912,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>76</v>
       </c>
@@ -1942,7 +1932,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>77</v>
       </c>
@@ -1962,7 +1952,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>78</v>
       </c>
@@ -1982,7 +1972,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>60</v>
       </c>
@@ -2002,7 +1992,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
@@ -2022,7 +2012,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
@@ -2042,7 +2032,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
@@ -2062,7 +2052,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>67</v>
       </c>
@@ -2082,7 +2072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>68</v>
       </c>
@@ -2102,7 +2092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>69</v>
       </c>
@@ -2122,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>70</v>
       </c>
@@ -2142,7 +2132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>71</v>
       </c>
@@ -2162,7 +2152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>72</v>
       </c>
@@ -2182,7 +2172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>73</v>
       </c>
@@ -2202,7 +2192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>74</v>
       </c>
@@ -2225,5 +2215,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>